--- a/backend/projects/project-a-123-sunset-blvd/data/12_BUDGET_TRACKING/Project_Budget_v1.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/12_BUDGET_TRACKING/Project_Budget_v1.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget v1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget v1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,25 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,6 +554,246 @@
         <v>679000</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>21436</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>26496</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>13177</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>28993</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6792</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>27690</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>29718</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>35778</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>12459</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>39879</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>11633</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>32687</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>11883</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>33845</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>34235</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>45911</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>26198</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>43665</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>25685</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>42347</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>24196</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>31807</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>28084</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/projects/project-a-123-sunset-blvd/data/12_BUDGET_TRACKING/Project_Budget_v1.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/12_BUDGET_TRACKING/Project_Budget_v1.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget v1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget V1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27,6 +27,7 @@
     </font>
     <font>
       <b val="1"/>
+      <color rgb="00FFFFFF"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -39,12 +40,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D3D3D3"/>
-        <bgColor rgb="00D3D3D3"/>
+        <fgColor rgb="001F4E78"/>
+        <bgColor rgb="001F4E78"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -52,13 +53,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -424,13 +433,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -440,7 +453,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Original Budget</t>
+          <t>Budget</t>
         </is>
       </c>
     </row>
@@ -451,7 +464,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="3">
@@ -461,7 +474,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18000</v>
+        <v>60540</v>
       </c>
     </row>
     <row r="4">
@@ -471,327 +484,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Site Prep</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Foundation</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Frame</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Services</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Finishes</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Contingency</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>679000</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Item 12</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>21436</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Item 13</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>26496</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Item 14</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>13177</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Item 15</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>28993</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Item 16</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>6792</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Item 17</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2058</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Item 18</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>27690</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Item 19</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>29718</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Item 20</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>35778</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Item 21</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>12459</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Item 22</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>39879</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Item 23</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>11633</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Item 24</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>32687</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Item 25</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>11883</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Item 26</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>33845</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Item 27</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>34235</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Item 28</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>45911</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Item 29</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>26198</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Item 30</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>43665</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Item 31</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>25685</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Item 32</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>42347</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Item 33</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>24196</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Item 34</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>31807</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Item 35</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>28084</v>
+        <v>20405</v>
       </c>
     </row>
   </sheetData>
